--- a/Module13/Assignment/220138_NetMHC.xlsx
+++ b/Module13/Assignment/220138_NetMHC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module13/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9F5C63-6969-FF49-B7E1-410135B6B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55210C-8CFF-014F-B968-DF4704C4F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="880" windowWidth="28300" windowHeight="18340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="220138_NetMHC" sheetId="1" r:id="rId1"/>
@@ -1055,11 +1055,38 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF34FF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1076,7 +1103,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
+          <bgColor rgb="FFF34FF7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1091,12 +1118,43 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF34FF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5150,7 +5208,7 @@
   <dimension ref="C3:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5198,7 +5256,7 @@
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>137</v>
@@ -5207,25 +5265,25 @@
         <v>139</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
@@ -6222,16 +6280,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E35">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D35">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F35">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
